--- a/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
+++ b/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PatForestCate_GitHub\2.Plan_File\기획서 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54206406-A9C2-4822-AC9B-31BA1E449CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A629F-EAB3-4A81-AB9A-ECE87DC1011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="19" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -637,9 +637,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -661,6 +658,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,14 +670,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,16 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,24 +781,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3EE963-AF24-40D3-831F-C1CD3CB4EFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,8 +806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -844,8 +844,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD568576-3A59-4EB9-8136-1FAC2A47331A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E67AA04-A9D9-4B2E-8BB2-8FB508D97358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -859,23 +1024,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB86A21-322A-43FE-9A19-A4AD88CBF4E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,8 +1048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -921,8 +1086,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFB8CB6-D2F2-4485-A8B4-52613961D971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61099109-13D7-4E8D-8E67-E6E50423891A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -936,23 +1266,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09414F07-E364-431D-AEB1-F3B9AB8E2304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,8 +1290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -998,8 +1328,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED25E6AF-0440-48BE-8074-CD3D48B61788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3977395-364E-4BE9-8395-2E34D08DB32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1013,23 +1508,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="4" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E737B9-42B4-4620-9AC7-8BF0E00DDD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1075,8 +1570,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB49603D-E3B4-4610-A605-93F079CC09C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E675839-15D6-4AB9-8434-2092C39553BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1102,11 +1762,11 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC3A1D3-F912-47D1-9F19-2DB1D712E709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,8 +1774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1152,8 +1812,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C276783-86A9-4D3A-8D7B-DA6CCF6F0C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F65FF0-0DC5-4C75-B17F-06F1D24C1C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1167,23 +1992,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F29B018-B462-44E8-85A1-ADED9FCEE341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,8 +2016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1229,8 +2054,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995DA278-F173-49D1-A94C-C27640AC7E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6A8C28-028E-4514-9CDB-EA62A7838D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1244,23 +2234,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658EC165-A981-4950-9378-9E42280949A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,8 +2258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1306,8 +2296,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440221BB-7DFB-4DC9-9535-244E695B21BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49699650-311B-4241-82A1-7CF69DC0D0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1321,23 +2476,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6A30D0-3665-4B6D-8895-1691564922A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,8 +2500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1383,8 +2538,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8662D039-2C0E-4656-8CD2-9594EC34E730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E66314-804F-491A-A5AF-1605711D658D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1398,23 +2718,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AC14AD-A7FC-465F-A371-1ECC70CD444F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,8 +2742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1460,8 +2780,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C960FF-5EF1-4012-98A6-F5556C2380F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1647EC53-D7BB-432B-BC42-76CF140B42F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1475,23 +2960,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DF7112-4D26-467B-9C6B-44A9AEE30301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,8 +2984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1537,8 +3022,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7E63DC-21D3-44C2-A394-6B18AD472C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9ED9E2-A4C4-404D-A764-3A954D180F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1621,31 +3271,26 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="3" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9EE458-D70F-4EF8-8B99-5C4A3CE65637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,8 +3298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="5337175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1691,8 +3336,336 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FABDD76-A183-4336-A91F-EC8E8FE0441D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355975" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17949D5E-5AD3-4B4A-91D3-3801112C4AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE8A543-1165-4802-8772-815DE75D0C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3825516-8B37-4351-B7D7-E4DD8E0702B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1770,6 +3743,164 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF97714A-A9A9-4255-B2AC-9ABD25475A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6099175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838DA0C6-899D-4D74-933B-151EA60F9201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117975" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3720,15 +5851,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121709</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>964947</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3751,8 +5882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="660400"/>
-          <a:ext cx="3406775" cy="5595409"/>
+          <a:off x="177800" y="879475"/>
+          <a:ext cx="2908047" cy="4708525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3763,24 +5894,24 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="대체 처리 2">
+        <xdr:cNvPr id="4" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07CA0D1-A688-479F-B3E4-A6F244B58811}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,8 +5919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="5337175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3826,8 +5957,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F15D08-39FF-4313-8575-5E80EE2FD25E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3355975" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9535C67-CC3A-4272-9B39-43C0E97ED702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="63500"/>
+          <a:ext cx="1765300" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3840,24 +6136,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
+        <xdr:cNvPr id="3" name="대체 처리 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C9C750-78E8-4661-BF72-21D2F032902E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,8 +6161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="63500"/>
-          <a:ext cx="1727200" cy="546100"/>
+          <a:off x="6175375" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3903,8 +6199,173 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA33ACEA-7CE7-4D75-891E-DE89C15F2E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194175" y="76200"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467824F8-F106-45BF-9321-3E28CABA3AA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="244475" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4213,7 +6674,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4260,15 +6723,15 @@
       <c r="F2" s="10"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -4303,14 +6766,14 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -4321,17 +6784,17 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -4343,14 +6806,14 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -4378,15 +6841,15 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -4545,23 +7008,23 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="14" t="str">
         <f>IF(J15="제작",HYPERLINK("[시스템 관련 기획서.xlsx]제작! A1","제작 이동"),IF(J15="레시피",HYPERLINK("[시스템 관련 기획서.xlsx]레시피! A1","레시피 이동"),IF(J15="재고",HYPERLINK("[시스템 관련 기획서.xlsx]재고! A1","재고 이동"),"-")))</f>
         <v>레시피 이동</v>
       </c>
       <c r="S15" s="15"/>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -4602,13 +7065,13 @@
       <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="14" t="str">
         <f>IF(J17="인테리어",HYPERLINK("[시스템 관련 기획서.xlsx]인테리어! A1","인테리어 이동"),IF(J17="가공섬계약",HYPERLINK("[시스템 관련 기획서.xlsx]가공섬계약! A1","가공섬 계약 이동"),"-"))</f>
         <v>인테리어 이동</v>
@@ -4630,13 +7093,13 @@
       <c r="I18" s="5">
         <v>9</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
       <c r="O18" s="14" t="str">
         <f>IF(J18="패키지상점",HYPERLINK("[시스템 관련 기획서.xlsx]패키지상점! A1","패키지 상점 이동"),IF(J18="캣코인상점",HYPERLINK("[시스템 관련 기획서.xlsx]캣코인상점! A1","캣코인 상점 이동"),"-"))</f>
         <v>캣코인 상점 이동</v>
@@ -4694,13 +7157,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5">
@@ -6177,6 +8640,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="T15:V15"/>
@@ -6193,22 +8672,6 @@
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -6246,10 +8709,10 @@
   <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:I4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="H1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6257,27 +8720,43 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6290,10 +8769,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:I4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6301,27 +8780,43 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6334,10 +8829,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6345,21 +8840,35 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6372,10 +8881,10 @@
   <sheetPr codeName="Sheet13">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6383,21 +8892,35 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6410,10 +8933,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6421,21 +8944,35 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6446,30 +8983,46 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCD9A88-070C-734C-A3C8-CDC831914F9F}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6480,30 +9033,46 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80562103-B500-C847-B5CD-DEE1D5838F3E}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6514,30 +9083,46 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A266BC-E39D-F440-9908-C8C02ED3E7A8}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6548,10 +9133,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637EE6B0-4B51-C345-8547-BC2E68C230E7}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6559,21 +9144,35 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6585,30 +9184,46 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D390D0-D8C1-294C-9BB2-EAC3A5922C00}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6621,9 +9236,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6634,14 +9247,26 @@
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
@@ -6806,10 +9431,12 @@
       <c r="I20" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I20"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6820,30 +9447,46 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A8CE1-DBD8-0E42-BA2F-855DA13D13F7}">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6854,7 +9497,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17CAE81-87D5-AF49-9625-D78540E495D9}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -6863,21 +9506,35 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6907,18 +9564,18 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
@@ -6927,16 +9584,16 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
@@ -6945,14 +9602,14 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
@@ -6960,385 +9617,385 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="31"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="30" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="F6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="37" t="str">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="30" t="str">
         <f t="shared" ref="M6:M8" si="0">IF(ISBLANK(F6)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="F7" s="30" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="37" t="str">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="F8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="37" t="str">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="37" t="str">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="30" t="str">
         <f>IF(ISBLANK(F9)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="37" t="str">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="30" t="str">
         <f t="shared" ref="M10:M15" si="1">IF(ISBLANK(F10)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="37" t="str">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="37" t="str">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="37" t="str">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N13" s="38"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="37" t="str">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N14" s="38"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="37" t="str">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="F16" s="31" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="F16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="20" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="F17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="37" t="str">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="30" t="str">
         <f t="shared" ref="M17" si="2">IF(ISBLANK(F17)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N17" s="38"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="37" t="str">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="30" t="str">
         <f t="shared" ref="M18:M26" si="3">IF(ISBLANK(F18)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N18" s="38"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="37" t="str">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="37" t="str">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="37" t="str">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N21" s="38"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="37" t="str">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N22" s="38"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="37" t="str">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N23" s="38"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="37" t="str">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N24" s="38"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="37" t="str">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="37" t="str">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F27" s="16"/>
@@ -7356,38 +10013,38 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="31"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="F31" s="30" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="F31" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="37" t="str">
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="30" t="str">
         <f t="shared" ref="M31" si="4">IF(ISBLANK(F31)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="9" t="s">
         <v>34</v>
       </c>
@@ -7396,350 +10053,350 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="37" t="str">
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="30" t="str">
         <f t="shared" ref="M32:M40" si="5">IF(ISBLANK(F32)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N32" s="38"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="37" t="str">
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="30" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N33" s="38"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="37" t="str">
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="30" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N34" s="38"/>
+      <c r="N34" s="31"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="37" t="str">
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N35" s="38"/>
+      <c r="N35" s="31"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="37" t="str">
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="37" t="str">
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N37" s="38"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="37" t="str">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N38" s="38"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="37" t="str">
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N39" s="38"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="37" t="str">
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="30" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N40" s="38"/>
+      <c r="N40" s="31"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N41" s="31"/>
+      <c r="N41" s="33"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="37" t="str">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="30" t="str">
         <f t="shared" ref="M42" si="6">IF(ISBLANK(F42)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N42" s="38"/>
+      <c r="N42" s="31"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="37" t="str">
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="30" t="str">
         <f t="shared" ref="M43:M51" si="7">IF(ISBLANK(F43)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N43" s="38"/>
+      <c r="N43" s="31"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="37" t="str">
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N44" s="38"/>
+      <c r="N44" s="31"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="37" t="str">
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N45" s="38"/>
+      <c r="N45" s="31"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="37" t="str">
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N46" s="38"/>
+      <c r="N46" s="31"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="37" t="str">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N47" s="38"/>
+      <c r="N47" s="31"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="37" t="str">
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N48" s="38"/>
+      <c r="N48" s="31"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="37" t="str">
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N49" s="38"/>
+      <c r="N49" s="31"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="37" t="str">
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="38"/>
+      <c r="N50" s="31"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="37" t="str">
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="30" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N51" s="38"/>
+      <c r="N51" s="31"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
@@ -7747,398 +10404,398 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31" t="s">
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N55" s="31"/>
+      <c r="N55" s="33"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="F56" s="30" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="F56" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="37" t="str">
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="30" t="str">
         <f t="shared" ref="M56" si="8">IF(ISBLANK(F56)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N56" s="38"/>
+      <c r="N56" s="31"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="37" t="str">
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="30" t="str">
         <f t="shared" ref="M57:M65" si="9">IF(ISBLANK(F57)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N57" s="38"/>
+      <c r="N57" s="31"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="37" t="str">
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N58" s="38"/>
+      <c r="N58" s="31"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="37" t="str">
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N59" s="38"/>
+      <c r="N59" s="31"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="37" t="str">
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N60" s="38"/>
+      <c r="N60" s="31"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="37" t="str">
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N61" s="38"/>
+      <c r="N61" s="31"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="37" t="str">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N62" s="38"/>
+      <c r="N62" s="31"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="37" t="str">
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N63" s="38"/>
+      <c r="N63" s="31"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="37" t="str">
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N64" s="38"/>
+      <c r="N64" s="31"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="37" t="str">
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="30" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N65" s="38"/>
+      <c r="N65" s="31"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N66" s="31"/>
+      <c r="N66" s="33"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="37" t="str">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="30" t="str">
         <f t="shared" ref="M67" si="10">IF(ISBLANK(F67)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N67" s="38"/>
+      <c r="N67" s="31"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="37" t="str">
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="30" t="str">
         <f t="shared" ref="M68:M76" si="11">IF(ISBLANK(F68)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N68" s="38"/>
+      <c r="N68" s="31"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="37" t="str">
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N69" s="38"/>
+      <c r="N69" s="31"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="37" t="str">
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N70" s="38"/>
+      <c r="N70" s="31"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="37" t="str">
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N71" s="38"/>
+      <c r="N71" s="31"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="37" t="str">
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N72" s="38"/>
+      <c r="N72" s="31"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="37" t="str">
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N73" s="38"/>
+      <c r="N73" s="31"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="37" t="str">
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N74" s="38"/>
+      <c r="N74" s="31"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="37" t="str">
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N75" s="38"/>
+      <c r="N75" s="31"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="37" t="str">
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="30" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N76" s="38"/>
+      <c r="N76" s="31"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
@@ -8146,424 +10803,518 @@
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N80" s="31"/>
+      <c r="N80" s="33"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="30" t="s">
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="F81" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="37" t="str">
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="30" t="str">
         <f>IF(ISBLANK(F82)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N81" s="38"/>
+      <c r="N81" s="31"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="37" t="str">
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="30" t="str">
         <f>IF(ISBLANK(F81)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N82" s="38"/>
+      <c r="N82" s="31"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="37" t="str">
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="30" t="str">
         <f>IF(ISBLANK(#REF!)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N83" s="38"/>
+      <c r="N83" s="31"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="37" t="str">
-        <f t="shared" ref="M82:M90" si="12">IF(ISBLANK(F84)," ","-")</f>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="30" t="str">
+        <f t="shared" ref="M84:M90" si="12">IF(ISBLANK(F84)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N84" s="38"/>
+      <c r="N84" s="31"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="37" t="str">
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N85" s="38"/>
+      <c r="N85" s="31"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="37" t="str">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N86" s="38"/>
+      <c r="N86" s="31"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="37" t="str">
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N87" s="38"/>
+      <c r="N87" s="31"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="37" t="str">
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N88" s="38"/>
+      <c r="N88" s="31"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="37" t="str">
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N89" s="38"/>
+      <c r="N89" s="31"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="37" t="str">
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="30" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N90" s="38"/>
+      <c r="N90" s="31"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31" t="s">
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N91" s="31"/>
+      <c r="N91" s="33"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
-      <c r="F92" s="20" t="s">
+      <c r="F92" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="37" t="str">
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="30" t="str">
         <f t="shared" ref="M92" si="13">IF(ISBLANK(F92)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N92" s="38"/>
+      <c r="N92" s="31"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="37" t="str">
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="30" t="str">
         <f t="shared" ref="M93:M101" si="14">IF(ISBLANK(F93)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N93" s="38"/>
+      <c r="N93" s="31"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="37" t="str">
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N94" s="38"/>
+      <c r="N94" s="31"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="37" t="str">
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N95" s="38"/>
+      <c r="N95" s="31"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="37" t="str">
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N96" s="38"/>
+      <c r="N96" s="31"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="37" t="str">
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N97" s="38"/>
+      <c r="N97" s="31"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="37" t="str">
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N98" s="38"/>
+      <c r="N98" s="31"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="37" t="str">
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N99" s="38"/>
+      <c r="N99" s="31"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="37" t="str">
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N100" s="38"/>
+      <c r="N100" s="31"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="37" t="str">
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N101" s="38"/>
+      <c r="N101" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H1:I3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="F64:L64"/>
+    <mergeCell ref="F65:L65"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="F67:L67"/>
+    <mergeCell ref="F68:L68"/>
+    <mergeCell ref="F69:L69"/>
+    <mergeCell ref="F75:L75"/>
+    <mergeCell ref="F76:L76"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="F71:L71"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F60:L60"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D26"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="B31:D51"/>
+    <mergeCell ref="B56:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D101"/>
+    <mergeCell ref="B77:D79"/>
+    <mergeCell ref="F80:L80"/>
+    <mergeCell ref="F82:L82"/>
+    <mergeCell ref="F81:L81"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="F84:L84"/>
+    <mergeCell ref="F85:L85"/>
+    <mergeCell ref="F86:L86"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="F88:L88"/>
+    <mergeCell ref="F89:L89"/>
+    <mergeCell ref="F90:L90"/>
+    <mergeCell ref="F91:L91"/>
+    <mergeCell ref="F92:L92"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="F98:L98"/>
+    <mergeCell ref="F99:L99"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="F93:L93"/>
+    <mergeCell ref="F94:L94"/>
+    <mergeCell ref="F95:L95"/>
+    <mergeCell ref="F96:L96"/>
+    <mergeCell ref="F97:L97"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
     <mergeCell ref="M75:N75"/>
     <mergeCell ref="M76:N76"/>
     <mergeCell ref="M30:N30"/>
@@ -8588,138 +11339,44 @@
     <mergeCell ref="M65:N65"/>
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="F98:L98"/>
-    <mergeCell ref="F99:L99"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="F93:L93"/>
-    <mergeCell ref="F94:L94"/>
-    <mergeCell ref="F95:L95"/>
-    <mergeCell ref="F96:L96"/>
-    <mergeCell ref="F97:L97"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D101"/>
-    <mergeCell ref="B77:D79"/>
-    <mergeCell ref="F80:L80"/>
-    <mergeCell ref="F82:L82"/>
-    <mergeCell ref="F81:L81"/>
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="F84:L84"/>
-    <mergeCell ref="F85:L85"/>
-    <mergeCell ref="F86:L86"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="F88:L88"/>
-    <mergeCell ref="F89:L89"/>
-    <mergeCell ref="F90:L90"/>
-    <mergeCell ref="F91:L91"/>
-    <mergeCell ref="F92:L92"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="F16:L16"/>
-    <mergeCell ref="B31:D51"/>
-    <mergeCell ref="B56:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
     <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D26"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F51:L51"/>
-    <mergeCell ref="F55:L55"/>
-    <mergeCell ref="F56:L56"/>
-    <mergeCell ref="F57:L57"/>
-    <mergeCell ref="F58:L58"/>
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="F60:L60"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="F63:L63"/>
-    <mergeCell ref="F64:L64"/>
-    <mergeCell ref="F65:L65"/>
-    <mergeCell ref="F66:L66"/>
-    <mergeCell ref="F67:L67"/>
-    <mergeCell ref="F68:L68"/>
-    <mergeCell ref="F69:L69"/>
-    <mergeCell ref="F75:L75"/>
-    <mergeCell ref="F76:L76"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="F71:L71"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="F73:L73"/>
-    <mergeCell ref="F74:L74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8890,52 +11547,73 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="E3" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8948,7 +11626,7 @@
   <sheetPr codeName="Sheet9">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:I4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -8957,27 +11635,43 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
+++ b/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PatForestCate_GitHub\2.Plan_File\기획서 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A629F-EAB3-4A81-AB9A-ECE87DC1011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8537E-9A08-4A7B-A280-24B4D5FE4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" firstSheet="3" activeTab="19" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" activeTab="4" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -352,6 +352,15 @@
     <t>개발 목적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>게임의 회사의 로고를 밝히며, 
+유저에게 첫 제공해줄 화면입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 시안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -570,6 +579,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +708,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -658,9 +732,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,6 +739,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,25 +768,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3201,78 +3308,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="241300" y="76200"/>
-          <a:ext cx="1727200" cy="546100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3287,7 +3322,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9EE458-D70F-4EF8-8B99-5C4A3CE65637}"/>
@@ -3366,7 +3401,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FABDD76-A183-4336-A91F-EC8E8FE0441D}"/>
@@ -3423,6 +3458,85 @@
               </a:solidFill>
             </a:rPr>
             <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC559394-5331-4AE8-A648-9A05466BF645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231775" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3529,7 +3643,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE8A543-1165-4802-8772-815DE75D0C8B}"/>
@@ -3608,7 +3722,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3825516-8B37-4351-B7D7-E4DD8E0702B2}"/>
@@ -3678,78 +3792,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="대체 처리 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="241300" y="76200"/>
-          <a:ext cx="1727200" cy="546100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3764,7 +3806,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF97714A-A9A9-4255-B2AC-9ABD25475A51}"/>
@@ -3843,7 +3885,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="대체 처리 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838DA0C6-899D-4D74-933B-151EA60F9201}"/>
@@ -3900,6 +3942,85 @@
               </a:solidFill>
             </a:rPr>
             <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="대체 처리 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745FC6FF-D102-49B8-A659-D212523B6A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231775" y="63500"/>
+          <a:ext cx="1765300" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>개요 이동</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5315,6 +5436,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7683</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF53E5A-9251-4390-A0AD-DF438F0B5E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="1117600"/>
+          <a:ext cx="2966783" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6675,7 +6846,7 @@
   <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6723,15 +6894,15 @@
       <c r="F2" s="10"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -6766,14 +6937,14 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -6784,17 +6955,17 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -6806,14 +6977,14 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -6841,15 +7012,15 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -7008,23 +7179,23 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="14" t="str">
         <f>IF(J15="제작",HYPERLINK("[시스템 관련 기획서.xlsx]제작! A1","제작 이동"),IF(J15="레시피",HYPERLINK("[시스템 관련 기획서.xlsx]레시피! A1","레시피 이동"),IF(J15="재고",HYPERLINK("[시스템 관련 기획서.xlsx]재고! A1","재고 이동"),"-")))</f>
         <v>레시피 이동</v>
       </c>
       <c r="S15" s="15"/>
-      <c r="T15" s="19" t="s">
+      <c r="T15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="22"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -7065,13 +7236,13 @@
       <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="14" t="str">
         <f>IF(J17="인테리어",HYPERLINK("[시스템 관련 기획서.xlsx]인테리어! A1","인테리어 이동"),IF(J17="가공섬계약",HYPERLINK("[시스템 관련 기획서.xlsx]가공섬계약! A1","가공섬 계약 이동"),"-"))</f>
         <v>인테리어 이동</v>
@@ -7093,13 +7264,13 @@
       <c r="I18" s="5">
         <v>9</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="14" t="str">
         <f>IF(J18="패키지상점",HYPERLINK("[시스템 관련 기획서.xlsx]패키지상점! A1","패키지 상점 이동"),IF(J18="캣코인상점",HYPERLINK("[시스템 관련 기획서.xlsx]캣코인상점! A1","캣코인 상점 이동"),"-"))</f>
         <v>캣코인 상점 이동</v>
@@ -7157,13 +7328,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5">
@@ -8640,6 +8811,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="I8:O8"/>
     <mergeCell ref="J22:N22"/>
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="J24:N24"/>
@@ -8656,22 +8843,6 @@
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="I8:O8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -8711,9 +8882,7 @@
   </sheetPr>
   <dimension ref="B1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8772,7 +8941,7 @@
   <dimension ref="B1:I4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -8831,9 +9000,7 @@
   </sheetPr>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8883,9 +9050,7 @@
   </sheetPr>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8935,9 +9100,7 @@
   </sheetPr>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8985,9 +9148,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9035,9 +9196,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9085,9 +9244,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9135,9 +9292,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9186,9 +9341,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9449,9 +9602,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9547,7 +9698,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:R101"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91:L91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9564,18 +9717,18 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
@@ -9584,16 +9737,18 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
@@ -9602,14 +9757,14 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
@@ -9617,385 +9772,385 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="33"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="35" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="F6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="30" t="str">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="36" t="str">
         <f t="shared" ref="M6:M8" si="0">IF(ISBLANK(F6)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="F7" s="35" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="30" t="str">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="F8" s="35" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="F8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="30" t="str">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="36" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="30" t="str">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="36" t="str">
         <f>IF(ISBLANK(F9)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="30" t="str">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="36" t="str">
         <f t="shared" ref="M10:M15" si="1">IF(ISBLANK(F10)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="30" t="str">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="30" t="str">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="30" t="str">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="30" t="str">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="30" t="str">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="F16" s="33" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="F16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="33"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="F17" s="19" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="30" t="str">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="36" t="str">
         <f t="shared" ref="M17" si="2">IF(ISBLANK(F17)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="30" t="str">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="36" t="str">
         <f t="shared" ref="M18:M26" si="3">IF(ISBLANK(F18)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="30" t="str">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="30" t="str">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N20" s="31"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="30" t="str">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N21" s="31"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="30" t="str">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="30" t="str">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="30" t="str">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="30" t="str">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N25" s="31"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="30" t="str">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F27" s="16"/>
@@ -10013,38 +10168,38 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="33"/>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="F31" s="35" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="F31" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="30" t="str">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="36" t="str">
         <f t="shared" ref="M31" si="4">IF(ISBLANK(F31)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N31" s="31"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="9" t="s">
         <v>34</v>
       </c>
@@ -10053,350 +10208,350 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="30" t="str">
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="36" t="str">
         <f t="shared" ref="M32:M40" si="5">IF(ISBLANK(F32)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N32" s="31"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="30" t="str">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="36" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N33" s="31"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="30" t="str">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="36" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="30" t="str">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="30" t="str">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N36" s="31"/>
+      <c r="N36" s="37"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="30" t="str">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="30" t="str">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N38" s="31"/>
+      <c r="N38" s="37"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="30" t="str">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N39" s="31"/>
+      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="30" t="str">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N40" s="31"/>
+      <c r="N40" s="37"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N41" s="33"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="30" t="str">
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="36" t="str">
         <f t="shared" ref="M42" si="6">IF(ISBLANK(F42)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="37"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="30" t="str">
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="36" t="str">
         <f t="shared" ref="M43:M51" si="7">IF(ISBLANK(F43)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="30" t="str">
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N44" s="31"/>
+      <c r="N44" s="37"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="30" t="str">
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N45" s="31"/>
+      <c r="N45" s="37"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="30" t="str">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N46" s="31"/>
+      <c r="N46" s="37"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="30" t="str">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N47" s="31"/>
+      <c r="N47" s="37"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="30" t="str">
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N48" s="31"/>
+      <c r="N48" s="37"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="30" t="str">
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="37"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="30" t="str">
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="31"/>
+      <c r="N50" s="37"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="30" t="str">
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="37"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
@@ -10404,398 +10559,398 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33" t="s">
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N55" s="33"/>
+      <c r="N55" s="31"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="F56" s="35" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="F56" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="30" t="str">
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="36" t="str">
         <f t="shared" ref="M56" si="8">IF(ISBLANK(F56)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N56" s="31"/>
+      <c r="N56" s="37"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="30" t="str">
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="36" t="str">
         <f t="shared" ref="M57:M65" si="9">IF(ISBLANK(F57)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N57" s="31"/>
+      <c r="N57" s="37"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="30" t="str">
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N58" s="31"/>
+      <c r="N58" s="37"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="30" t="str">
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N59" s="31"/>
+      <c r="N59" s="37"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="30" t="str">
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N60" s="31"/>
+      <c r="N60" s="37"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="30" t="str">
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N61" s="31"/>
+      <c r="N61" s="37"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="30" t="str">
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N62" s="31"/>
+      <c r="N62" s="37"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="30" t="str">
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N63" s="31"/>
+      <c r="N63" s="37"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="30" t="str">
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N64" s="31"/>
+      <c r="N64" s="37"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="30" t="str">
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N65" s="31"/>
+      <c r="N65" s="37"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33" t="s">
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N66" s="33"/>
+      <c r="N66" s="31"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="30" t="str">
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="36" t="str">
         <f t="shared" ref="M67" si="10">IF(ISBLANK(F67)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N67" s="31"/>
+      <c r="N67" s="37"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="30" t="str">
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="36" t="str">
         <f t="shared" ref="M68:M76" si="11">IF(ISBLANK(F68)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N68" s="31"/>
+      <c r="N68" s="37"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="30" t="str">
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N69" s="31"/>
+      <c r="N69" s="37"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="30" t="str">
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N70" s="31"/>
+      <c r="N70" s="37"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="30" t="str">
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N71" s="31"/>
+      <c r="N71" s="37"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="30" t="str">
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N72" s="31"/>
+      <c r="N72" s="37"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="30" t="str">
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N73" s="31"/>
+      <c r="N73" s="37"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="30" t="str">
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N74" s="31"/>
+      <c r="N74" s="37"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="30" t="str">
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N75" s="31"/>
+      <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="30" t="str">
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N76" s="31"/>
+      <c r="N76" s="37"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
@@ -10803,435 +10958,507 @@
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33" t="s">
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N80" s="33"/>
+      <c r="N80" s="31"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="F81" s="35" t="s">
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="F81" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="30" t="str">
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="36" t="str">
         <f>IF(ISBLANK(F82)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N81" s="31"/>
+      <c r="N81" s="37"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
-      <c r="F82" s="35" t="s">
+      <c r="F82" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="30" t="str">
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="36" t="str">
         <f>IF(ISBLANK(F81)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N82" s="31"/>
+      <c r="N82" s="37"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
-      <c r="F83" s="35" t="s">
+      <c r="F83" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="30" t="str">
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="36" t="str">
         <f>IF(ISBLANK(#REF!)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N83" s="31"/>
+      <c r="N83" s="37"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="30" t="str">
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="36" t="str">
         <f t="shared" ref="M84:M90" si="12">IF(ISBLANK(F84)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N84" s="31"/>
+      <c r="N84" s="37"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="30" t="str">
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N85" s="31"/>
+      <c r="N85" s="37"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="30" t="str">
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N86" s="31"/>
+      <c r="N86" s="37"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="30" t="str">
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N87" s="31"/>
+      <c r="N87" s="37"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="30" t="str">
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N88" s="31"/>
+      <c r="N88" s="37"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="30" t="str">
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N89" s="31"/>
+      <c r="N89" s="37"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="30" t="str">
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N90" s="31"/>
+      <c r="N90" s="37"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
-      <c r="F91" s="33" t="s">
+      <c r="F91" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33" t="s">
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N91" s="33"/>
+      <c r="N91" s="31"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="30" t="str">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="36" t="str">
         <f t="shared" ref="M92" si="13">IF(ISBLANK(F92)," ","-")</f>
         <v>-</v>
       </c>
-      <c r="N92" s="31"/>
+      <c r="N92" s="37"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="30" t="str">
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="36" t="str">
         <f t="shared" ref="M93:M101" si="14">IF(ISBLANK(F93)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N93" s="31"/>
+      <c r="N93" s="37"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="30" t="str">
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N94" s="31"/>
+      <c r="N94" s="37"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="30" t="str">
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N95" s="31"/>
+      <c r="N95" s="37"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="30" t="str">
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N96" s="31"/>
+      <c r="N96" s="37"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="30" t="str">
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N97" s="31"/>
+      <c r="N97" s="37"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="30" t="str">
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N98" s="31"/>
+      <c r="N98" s="37"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="30" t="str">
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N99" s="31"/>
+      <c r="N99" s="37"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="30" t="str">
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N100" s="31"/>
+      <c r="N100" s="37"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="30" t="str">
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N101" s="31"/>
+      <c r="N101" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="F64:L64"/>
-    <mergeCell ref="F65:L65"/>
-    <mergeCell ref="F66:L66"/>
-    <mergeCell ref="F67:L67"/>
-    <mergeCell ref="F68:L68"/>
-    <mergeCell ref="F69:L69"/>
-    <mergeCell ref="F75:L75"/>
-    <mergeCell ref="F76:L76"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="F71:L71"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="F73:L73"/>
-    <mergeCell ref="F74:L74"/>
-    <mergeCell ref="F55:L55"/>
-    <mergeCell ref="F56:L56"/>
-    <mergeCell ref="F57:L57"/>
-    <mergeCell ref="F58:L58"/>
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="F60:L60"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="F63:L63"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F51:L51"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D26"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="F98:L98"/>
+    <mergeCell ref="F99:L99"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="F93:L93"/>
+    <mergeCell ref="F94:L94"/>
+    <mergeCell ref="F95:L95"/>
+    <mergeCell ref="F96:L96"/>
+    <mergeCell ref="F97:L97"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D101"/>
+    <mergeCell ref="B77:D79"/>
+    <mergeCell ref="F80:L80"/>
+    <mergeCell ref="F82:L82"/>
+    <mergeCell ref="F81:L81"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="F84:L84"/>
+    <mergeCell ref="F85:L85"/>
+    <mergeCell ref="F86:L86"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="F88:L88"/>
+    <mergeCell ref="F89:L89"/>
+    <mergeCell ref="F90:L90"/>
+    <mergeCell ref="F91:L91"/>
+    <mergeCell ref="F92:L92"/>
     <mergeCell ref="B31:D51"/>
     <mergeCell ref="B56:D76"/>
     <mergeCell ref="B55:D55"/>
@@ -11256,127 +11483,55 @@
     <mergeCell ref="F40:L40"/>
     <mergeCell ref="F41:L41"/>
     <mergeCell ref="F42:L42"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D101"/>
-    <mergeCell ref="B77:D79"/>
-    <mergeCell ref="F80:L80"/>
-    <mergeCell ref="F82:L82"/>
-    <mergeCell ref="F81:L81"/>
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="F84:L84"/>
-    <mergeCell ref="F85:L85"/>
-    <mergeCell ref="F86:L86"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="F88:L88"/>
-    <mergeCell ref="F89:L89"/>
-    <mergeCell ref="F90:L90"/>
-    <mergeCell ref="F91:L91"/>
-    <mergeCell ref="F92:L92"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="F98:L98"/>
-    <mergeCell ref="F99:L99"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="F93:L93"/>
-    <mergeCell ref="F94:L94"/>
-    <mergeCell ref="F95:L95"/>
-    <mergeCell ref="F96:L96"/>
-    <mergeCell ref="F97:L97"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D26"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F5:L5"/>
     <mergeCell ref="F1:G3"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
     <mergeCell ref="H1:I3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F60:L60"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F64:L64"/>
+    <mergeCell ref="F65:L65"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="F67:L67"/>
+    <mergeCell ref="F68:L68"/>
+    <mergeCell ref="F69:L69"/>
+    <mergeCell ref="F75:L75"/>
+    <mergeCell ref="F76:L76"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="F71:L71"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="F74:L74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11388,9 +11543,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D5D26-E895-5E4B-923A-201331A21627}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:I3"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11398,7 +11555,7 @@
     <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="F1" s="27"/>
@@ -11406,7 +11563,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="F2" s="27"/>
@@ -11414,7 +11571,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="F3" s="27"/>
@@ -11422,11 +11579,533 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="36" t="str">
+        <f t="shared" ref="M6:M8" si="0">IF(ISBLANK(F6)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="36" t="str">
+        <f>IF(ISBLANK(F9)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="36" t="str">
+        <f t="shared" ref="M10:M15" si="1">IF(ISBLANK(F10)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="36" t="str">
+        <f t="shared" ref="M16:M17" si="2">IF(ISBLANK(F16)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="51"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="36" t="str">
+        <f t="shared" ref="M19:M28" si="3">IF(ISBLANK(F19)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="45"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="45"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="46"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="36" t="str">
+        <f t="shared" ref="M29:M30" si="4">IF(ISBLANK(F29)," ","-")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="47"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="48"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N30" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="57">
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B6:D30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
+++ b/2.Plan_File/기획서 파일/시스템 관련 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PatForestCate_GitHub\2.Plan_File\기획서 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongjin-yeong/Desktop/JungJinYeong/PatForestCafe_GitHub/2.Plan_File/기획서 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8537E-9A08-4A7B-A280-24B4D5FE4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538E966-1D28-4044-9A65-DCBAC79074AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="836" activeTab="4" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="836" firstSheet="1" activeTab="4" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,23 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>정진영</author>
+  </authors>
+  <commentList>
+    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{3D482975-C119-B84E-AD13-1D71DD2666BA}">
+      <text>
+        <t/>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -349,10 +364,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>개발 목적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게임의 회사의 로고를 밝히며, 
 유저에게 첫 제공해줄 화면입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -361,12 +372,87 @@
     <t>로비 시안</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>페이지 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 플레이를 즐길
+로비 화면입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비는 다양한 버튼이 존재합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.해당 부분은 "상단바" 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4."=" 버튼을 누른 경우 환경설정 팝업을 출력합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_BackGround_01.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 용도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단바 뒷 배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 아이콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캣 코인 아이콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.획득한 골드와 냥코인[캐쉬]를 표기 하며, 우측 "=" 아이콘은 환경설정 버튼입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.골드 아이콘과 냥코인[캐쉬]을 누른 경우 상점 팝업을 띄워줍니다.[골드, 냥코인 = 상점 버튼]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 용도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_BackGround_02.png</t>
+  </si>
+  <si>
+    <t>Common_BackGround_03.png</t>
+  </si>
+  <si>
+    <t>UI의 뒷 배경을 모아 두었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 및 캣 코인 뒷 배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,6 +535,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -650,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,13 +795,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,6 +828,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,13 +841,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,34 +870,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +904,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4116,13 +4227,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>17040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4137,8 +4248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="156740" y="6502400"/>
-          <a:ext cx="2967460" cy="4533900"/>
+          <a:off x="169440" y="7061200"/>
+          <a:ext cx="3081760" cy="4978400"/>
           <a:chOff x="245640" y="1181100"/>
           <a:chExt cx="2694197" cy="4724400"/>
         </a:xfrm>
@@ -4581,8 +4692,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="156740" y="11887200"/>
-          <a:ext cx="2967460" cy="4533900"/>
+          <a:off x="169440" y="13000567"/>
+          <a:ext cx="3094460" cy="4978400"/>
           <a:chOff x="8081540" y="1092200"/>
           <a:chExt cx="2967460" cy="4533900"/>
         </a:xfrm>
@@ -5478,6 +5589,50 @@
         <a:xfrm>
           <a:off x="152400" y="1117600"/>
           <a:ext cx="2966783" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>188007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AA425C-C0A3-504E-85D9-9B5AF3985D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="8051801"/>
+          <a:ext cx="3098800" cy="365806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6545,6 +6700,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -6846,28 +7005,28 @@
   <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="1"/>
-    <col min="14" max="14" width="11.5546875"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="9"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="1"/>
+    <col min="14" max="14" width="11.5703125"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6885,7 +7044,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -6894,17 +7053,17 @@
       <c r="F2" s="10"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -6916,16 +7075,16 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6937,16 +7096,16 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6955,19 +7114,19 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6976,17 +7135,17 @@
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -7003,7 +7162,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -7012,18 +7171,18 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7035,18 +7194,18 @@
       <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7058,18 +7217,18 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7081,18 +7240,18 @@
       <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7104,18 +7263,18 @@
       <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7127,18 +7286,18 @@
       <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7150,24 +7309,24 @@
       <c r="I14" s="5">
         <v>5</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7179,25 +7338,25 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="14" t="str">
         <f>IF(J15="제작",HYPERLINK("[시스템 관련 기획서.xlsx]제작! A1","제작 이동"),IF(J15="레시피",HYPERLINK("[시스템 관련 기획서.xlsx]레시피! A1","레시피 이동"),IF(J15="재고",HYPERLINK("[시스템 관련 기획서.xlsx]재고! A1","재고 이동"),"-")))</f>
         <v>레시피 이동</v>
       </c>
       <c r="S15" s="15"/>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U15" s="22"/>
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7209,101 +7368,101 @@
       <c r="I16" s="5">
         <v>7</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="9"/>
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="14" t="str">
         <f>IF(J17="인테리어",HYPERLINK("[시스템 관련 기획서.xlsx]인테리어! A1","인테리어 이동"),IF(J17="가공섬계약",HYPERLINK("[시스템 관련 기획서.xlsx]가공섬계약! A1","가공섬 계약 이동"),"-"))</f>
         <v>인테리어 이동</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="5">
         <v>9</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="14" t="str">
         <f>IF(J18="패키지상점",HYPERLINK("[시스템 관련 기획서.xlsx]패키지상점! A1","패키지 상점 이동"),IF(J18="캣코인상점",HYPERLINK("[시스템 관련 기획서.xlsx]캣코인상점! A1","캣코인 상점 이동"),"-"))</f>
         <v>캣코인 상점 이동</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="5">
         <v>10</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7315,43 +7474,43 @@
       <c r="I20" s="5">
         <v>11</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="9"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5">
         <v>12</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -7359,28 +7518,28 @@
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="5">
         <v>13</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -7388,51 +7547,51 @@
       <c r="C23" s="4">
         <v>44590</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="5">
         <v>14</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="9"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="5">
         <v>15</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -7449,7 +7608,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -7466,7 +7625,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -7483,7 +7642,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -7500,7 +7659,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -7517,7 +7676,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7534,7 +7693,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -7551,7 +7710,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -7568,7 +7727,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -7585,7 +7744,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -7602,7 +7761,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -7619,7 +7778,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -7636,7 +7795,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -7653,7 +7812,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -7670,7 +7829,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -7687,7 +7846,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -7704,7 +7863,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -7721,7 +7880,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -7738,7 +7897,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -7755,7 +7914,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -7772,7 +7931,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -7789,7 +7948,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -7806,7 +7965,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -7823,7 +7982,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -7840,7 +7999,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -7857,7 +8016,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -7874,7 +8033,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -7891,7 +8050,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -7908,7 +8067,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -7925,7 +8084,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -7942,7 +8101,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -7959,7 +8118,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -7976,7 +8135,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -7993,7 +8152,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -8010,7 +8169,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -8027,7 +8186,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -8044,7 +8203,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -8061,7 +8220,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -8078,7 +8237,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -8095,7 +8254,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -8112,7 +8271,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -8129,7 +8288,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -8146,7 +8305,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -8163,7 +8322,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -8180,7 +8339,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -8197,7 +8356,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -8214,7 +8373,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -8231,7 +8390,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -8248,7 +8407,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -8265,7 +8424,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -8282,7 +8441,7 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -8299,7 +8458,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8316,7 +8475,7 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -8333,7 +8492,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -8350,7 +8509,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -8367,7 +8526,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -8384,7 +8543,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -8401,7 +8560,7 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -8418,7 +8577,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -8435,7 +8594,7 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -8452,7 +8611,7 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -8469,7 +8628,7 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -8486,7 +8645,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -8503,7 +8662,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -8520,7 +8679,7 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -8537,7 +8696,7 @@
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -8554,7 +8713,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -8571,7 +8730,7 @@
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -8588,7 +8747,7 @@
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -8605,7 +8764,7 @@
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -8622,7 +8781,7 @@
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -8639,7 +8798,7 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -8656,7 +8815,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -8673,7 +8832,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -8690,7 +8849,7 @@
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -8707,7 +8866,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -8724,7 +8883,7 @@
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -8741,7 +8900,7 @@
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -8758,7 +8917,7 @@
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -8775,7 +8934,7 @@
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -8792,7 +8951,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -8811,6 +8970,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="T15:V15"/>
@@ -8827,22 +9002,6 @@
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -8884,36 +9043,36 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="F4" t="s">
         <v>40</v>
       </c>
@@ -8940,40 +9099,38 @@
   </sheetPr>
   <dimension ref="B1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="E4" t="s">
         <v>40</v>
       </c>
@@ -9002,34 +9159,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9052,34 +9209,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9102,34 +9259,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9150,34 +9307,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9198,34 +9355,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9246,34 +9403,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9294,34 +9451,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9343,34 +9500,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9387,204 +9544,307 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C742B-4CE4-CC41-BCDB-1191AC05BD23}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="18">
+        <f>ROW()-24</f>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="18">
+        <f t="shared" ref="B26:B30" si="0">ROW()-24</f>
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I20"/>
@@ -9604,34 +9864,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9652,34 +9912,34 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9698,461 +9958,461 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91:L91"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42:N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="9" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" style="9"/>
-    <col min="5" max="5" width="1.77734375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="1.7109375" style="9" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" style="9"/>
+    <col min="5" max="5" width="1.7109375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="K1" s="31" t="s">
+    <row r="1" spans="2:18" ht="17.25" customHeight="1">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="2:18" ht="17.25" customHeight="1">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-    </row>
-    <row r="2" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="K2" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-    </row>
-    <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="2:18" ht="17.25" customHeight="1">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="31" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="F5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="30" t="s">
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="36" t="str">
         <f t="shared" ref="M6:M8" si="0">IF(ISBLANK(F6)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="F7" s="30" t="s">
+    <row r="7" spans="2:18">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="F7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="F8" s="30" t="s">
+    <row r="8" spans="2:18">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="36" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="N8" s="37"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+    <row r="9" spans="2:18">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="36" t="str">
         <f>IF(ISBLANK(F9)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+    <row r="10" spans="2:18">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="36" t="str">
         <f t="shared" ref="M10:M15" si="1">IF(ISBLANK(F10)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+    <row r="11" spans="2:18">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N11" s="37"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+    <row r="12" spans="2:18">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+    <row r="13" spans="2:18">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+    <row r="14" spans="2:18">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+    <row r="15" spans="2:18">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N15" s="37"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="F16" s="31" t="s">
+    <row r="16" spans="2:18">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="20" t="s">
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="F17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="36" t="str">
         <f t="shared" ref="M17" si="2">IF(ISBLANK(F17)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+    <row r="18" spans="2:15">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="36" t="str">
         <f t="shared" ref="M18:M26" si="3">IF(ISBLANK(F18)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+    <row r="19" spans="2:15">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="37"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+    <row r="20" spans="2:15">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+    <row r="21" spans="2:15">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+    <row r="22" spans="2:15">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+    <row r="23" spans="2:15">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N23" s="37"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+    <row r="24" spans="2:15">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+    <row r="25" spans="2:15">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="2:15">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15">
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -10162,39 +10422,39 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:15">
+      <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="31" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31" t="s">
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="F31" s="30" t="s">
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="F31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
       <c r="M31" s="36" t="str">
         <f t="shared" ref="M31" si="4">IF(ISBLANK(F31)," ","-")</f>
         <v>-</v>
@@ -10204,1134 +10464,1134 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="F32" s="30" t="s">
+    <row r="32" spans="2:15">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="F32" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="36" t="str">
         <f t="shared" ref="M32:M40" si="5">IF(ISBLANK(F32)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="F33" s="30" t="s">
+    <row r="33" spans="2:14">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="36" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="N33" s="37"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="F34" s="30" t="s">
+    <row r="34" spans="2:14">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="F34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="36" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="N34" s="37"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+    <row r="35" spans="2:14">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N35" s="37"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+    <row r="36" spans="2:14">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N36" s="37"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+    <row r="37" spans="2:14">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N37" s="37"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+    <row r="38" spans="2:14">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+    <row r="39" spans="2:14">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
       <c r="M39" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N39" s="37"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+    <row r="40" spans="2:14">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
       <c r="M40" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="F41" s="31" t="s">
+    <row r="41" spans="2:14">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="F41" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31" t="s">
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="F42" s="20" t="s">
+      <c r="N41" s="34"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="F42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="36" t="str">
         <f t="shared" ref="M42" si="6">IF(ISBLANK(F42)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+    <row r="43" spans="2:14">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
       <c r="M43" s="36" t="str">
         <f t="shared" ref="M43:M51" si="7">IF(ISBLANK(F43)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N43" s="37"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+    <row r="44" spans="2:14">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
       <c r="M44" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N44" s="37"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+    <row r="45" spans="2:14">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
       <c r="M45" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N45" s="37"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+    <row r="46" spans="2:14">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
       <c r="M46" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+    <row r="47" spans="2:14">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
       <c r="M47" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N47" s="37"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+    <row r="48" spans="2:14">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
       <c r="M48" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N48" s="37"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+    <row r="49" spans="2:14">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
       <c r="M49" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N49" s="37"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+    <row r="50" spans="2:14">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
       <c r="M50" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N50" s="37"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+    <row r="51" spans="2:14">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
       <c r="M51" s="36" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N51" s="37"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
+    <row r="55" spans="2:14">
+      <c r="B55" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="F55" s="31" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N55" s="31"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="F56" s="30" t="s">
+      <c r="N55" s="34"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="F56" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
       <c r="M56" s="36" t="str">
         <f t="shared" ref="M56" si="8">IF(ISBLANK(F56)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="F57" s="30" t="s">
+    <row r="57" spans="2:14">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="F57" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
       <c r="M57" s="36" t="str">
         <f t="shared" ref="M57:M65" si="9">IF(ISBLANK(F57)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N57" s="37"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+    <row r="58" spans="2:14">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
       <c r="M58" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N58" s="37"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+    <row r="59" spans="2:14">
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
       <c r="M59" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N59" s="37"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+    <row r="60" spans="2:14">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
       <c r="M60" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N60" s="37"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+    <row r="61" spans="2:14">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
       <c r="M61" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N61" s="37"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+    <row r="62" spans="2:14">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
       <c r="M62" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N62" s="37"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
+    <row r="63" spans="2:14">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
       <c r="M63" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N63" s="37"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
+    <row r="64" spans="2:14">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
       <c r="M64" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N64" s="37"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
+    <row r="65" spans="2:14">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
       <c r="M65" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N65" s="37"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="F66" s="31" t="s">
+    <row r="66" spans="2:14">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="F66" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N66" s="31"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="F67" s="20" t="s">
+      <c r="N66" s="34"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="F67" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
       <c r="M67" s="36" t="str">
         <f t="shared" ref="M67" si="10">IF(ISBLANK(F67)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N67" s="37"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
+    <row r="68" spans="2:14">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
       <c r="M68" s="36" t="str">
         <f t="shared" ref="M68:M76" si="11">IF(ISBLANK(F68)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N68" s="37"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
+    <row r="69" spans="2:14">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N69" s="37"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
+    <row r="70" spans="2:14">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
       <c r="M70" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N70" s="37"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
+    <row r="71" spans="2:14">
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
       <c r="M71" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N71" s="37"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
+    <row r="72" spans="2:14">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
       <c r="M72" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N72" s="37"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
+    <row r="73" spans="2:14">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
       <c r="M73" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N73" s="37"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
+    <row r="74" spans="2:14">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
       <c r="M74" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N74" s="37"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
+    <row r="75" spans="2:14">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
       <c r="M75" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N75" s="37"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
+    <row r="76" spans="2:14">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
       <c r="M76" s="36" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N76" s="37"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B80" s="18" t="s">
+    <row r="77" spans="2:14">
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="F80" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31" t="s">
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N80" s="31"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="F81" s="30" t="s">
+      <c r="N80" s="34"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="F81" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
       <c r="M81" s="36" t="str">
         <f>IF(ISBLANK(F82)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N81" s="37"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="F82" s="30" t="s">
+    <row r="82" spans="2:14">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="F82" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
       <c r="M82" s="36" t="str">
         <f>IF(ISBLANK(F81)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N82" s="37"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="F83" s="30" t="s">
+    <row r="83" spans="2:14">
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="F83" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
       <c r="M83" s="36" t="str">
         <f>IF(ISBLANK(#REF!)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N83" s="37"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
+    <row r="84" spans="2:14">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
       <c r="M84" s="36" t="str">
         <f t="shared" ref="M84:M90" si="12">IF(ISBLANK(F84)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N84" s="37"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
+    <row r="85" spans="2:14">
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
       <c r="M85" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N85" s="37"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
+    <row r="86" spans="2:14">
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
       <c r="M86" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N86" s="37"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
+    <row r="87" spans="2:14">
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
       <c r="M87" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N87" s="37"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
+    <row r="88" spans="2:14">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
       <c r="M88" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N88" s="37"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
+    <row r="89" spans="2:14">
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
       <c r="M89" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N89" s="37"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
+    <row r="90" spans="2:14">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
       <c r="M90" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N90" s="37"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="F91" s="31" t="s">
+    <row r="91" spans="2:14">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="F91" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31" t="s">
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N91" s="31"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="F92" s="20" t="s">
+      <c r="N91" s="34"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="F92" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="23"/>
       <c r="M92" s="36" t="str">
         <f t="shared" ref="M92" si="13">IF(ISBLANK(F92)," ","-")</f>
         <v>-</v>
       </c>
       <c r="N92" s="37"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
+    <row r="93" spans="2:14">
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
       <c r="M93" s="36" t="str">
         <f t="shared" ref="M93:M101" si="14">IF(ISBLANK(F93)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N93" s="37"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
+    <row r="94" spans="2:14">
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
       <c r="M94" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N94" s="37"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
+    <row r="95" spans="2:14">
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
       <c r="M95" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N95" s="37"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+    <row r="96" spans="2:14">
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
       <c r="M96" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N96" s="37"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
+    <row r="97" spans="2:14">
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
       <c r="M97" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N97" s="37"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
+    <row r="98" spans="2:14">
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
       <c r="M98" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N98" s="37"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
+    <row r="99" spans="2:14">
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
       <c r="M99" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N99" s="37"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
+    <row r="100" spans="2:14">
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
       <c r="M100" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N100" s="37"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
+    <row r="101" spans="2:14">
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
       <c r="M101" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
@@ -11340,85 +11600,95 @@
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="F64:L64"/>
+    <mergeCell ref="F65:L65"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="F67:L67"/>
+    <mergeCell ref="F68:L68"/>
+    <mergeCell ref="F69:L69"/>
+    <mergeCell ref="F75:L75"/>
+    <mergeCell ref="F76:L76"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="F71:L71"/>
+    <mergeCell ref="F72:L72"/>
+    <mergeCell ref="F73:L73"/>
+    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F60:L60"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D26"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="B31:D51"/>
+    <mergeCell ref="B56:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D101"/>
+    <mergeCell ref="B77:D79"/>
+    <mergeCell ref="F80:L80"/>
+    <mergeCell ref="F82:L82"/>
+    <mergeCell ref="F81:L81"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="F84:L84"/>
+    <mergeCell ref="F85:L85"/>
+    <mergeCell ref="F86:L86"/>
+    <mergeCell ref="F87:L87"/>
+    <mergeCell ref="F88:L88"/>
+    <mergeCell ref="F89:L89"/>
+    <mergeCell ref="F90:L90"/>
+    <mergeCell ref="F91:L91"/>
+    <mergeCell ref="F92:L92"/>
     <mergeCell ref="M99:N99"/>
     <mergeCell ref="M100:N100"/>
     <mergeCell ref="M101:N101"/>
@@ -11443,95 +11713,85 @@
     <mergeCell ref="F97:L97"/>
     <mergeCell ref="M90:N90"/>
     <mergeCell ref="M91:N91"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D101"/>
-    <mergeCell ref="B77:D79"/>
-    <mergeCell ref="F80:L80"/>
-    <mergeCell ref="F82:L82"/>
-    <mergeCell ref="F81:L81"/>
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="F84:L84"/>
-    <mergeCell ref="F85:L85"/>
-    <mergeCell ref="F86:L86"/>
-    <mergeCell ref="F87:L87"/>
-    <mergeCell ref="F88:L88"/>
-    <mergeCell ref="F89:L89"/>
-    <mergeCell ref="F90:L90"/>
-    <mergeCell ref="F91:L91"/>
-    <mergeCell ref="F92:L92"/>
-    <mergeCell ref="B31:D51"/>
-    <mergeCell ref="B56:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D26"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="H1:I3"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F51:L51"/>
-    <mergeCell ref="F55:L55"/>
-    <mergeCell ref="F56:L56"/>
-    <mergeCell ref="F57:L57"/>
-    <mergeCell ref="F58:L58"/>
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="F60:L60"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="F63:L63"/>
-    <mergeCell ref="F64:L64"/>
-    <mergeCell ref="F65:L65"/>
-    <mergeCell ref="F66:L66"/>
-    <mergeCell ref="F67:L67"/>
-    <mergeCell ref="F68:L68"/>
-    <mergeCell ref="F69:L69"/>
-    <mergeCell ref="F75:L75"/>
-    <mergeCell ref="F76:L76"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="F71:L71"/>
-    <mergeCell ref="F72:L72"/>
-    <mergeCell ref="F73:L73"/>
-    <mergeCell ref="F74:L74"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11541,514 +11801,725 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D5D26-E895-5E4B-923A-201331A21627}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D5D26-E895-5E4B-923A-201331A21627}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="F6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="36" t="str">
         <f t="shared" ref="M6:M8" si="0">IF(ISBLANK(F6)," ","-")</f>
-        <v xml:space="preserve"> </v>
+        <v>-</v>
       </c>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
+    <row r="7" spans="2:18">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="46"/>
+    <row r="8" spans="2:18">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N8" s="37"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="46"/>
+    <row r="9" spans="2:18">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="36" t="str">
         <f>IF(ISBLANK(F9)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="46"/>
+    <row r="10" spans="2:18">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="36" t="str">
         <f t="shared" ref="M10:M15" si="1">IF(ISBLANK(F10)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="46"/>
+    <row r="11" spans="2:18">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N11" s="37"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="46"/>
+    <row r="12" spans="2:18">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="46"/>
+    <row r="13" spans="2:18">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="46"/>
+    <row r="14" spans="2:18">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="46"/>
+    <row r="15" spans="2:18">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N15" s="37"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="46"/>
+    <row r="16" spans="2:18">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="36" t="str">
         <f t="shared" ref="M16:M17" si="2">IF(ISBLANK(F16)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="46"/>
+    <row r="17" spans="2:14">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="36" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="46"/>
+    <row r="18" spans="2:14">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="49" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="36" t="str">
         <f t="shared" ref="M19:M28" si="3">IF(ISBLANK(F19)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="37"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="46"/>
+    <row r="20" spans="2:14">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
+    <row r="21" spans="2:14">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="46"/>
+    <row r="22" spans="2:14">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="46"/>
+    <row r="23" spans="2:14">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N23" s="37"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="46"/>
+    <row r="24" spans="2:14">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="46"/>
+    <row r="25" spans="2:14">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="46"/>
+    <row r="26" spans="2:14">
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+    <row r="27" spans="2:14">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N27" s="37"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="46"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+    <row r="28" spans="2:14">
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="46"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+    <row r="29" spans="2:14">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="36" t="str">
         <f t="shared" ref="M29:M30" si="4">IF(ISBLANK(F29)," ","-")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N29" s="37"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="48"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+    <row r="30" spans="2:14">
+      <c r="B30" s="49"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="50"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="36" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N30" s="37"/>
     </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="F34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="34"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="F35" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="55"/>
+      <c r="O35" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="F36" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="55"/>
+      <c r="O36" s="36" t="str">
+        <f>IF(ISBLANK(F36)," ","-")</f>
+        <v>-</v>
+      </c>
+      <c r="P36" s="37"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="F37" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" s="55"/>
+      <c r="O37" s="36" t="str">
+        <f>IF(ISBLANK(F37)," ","-")</f>
+        <v>-</v>
+      </c>
+      <c r="P37" s="37"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="F38" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="57"/>
+      <c r="O38" s="36" t="str">
+        <f>IF(ISBLANK(F38)," ","-")</f>
+        <v>-</v>
+      </c>
+      <c r="P38" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="78">
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="B35:D38"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="H1:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="F25:L25"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="F26:L26"/>
@@ -12065,51 +12536,11 @@
     <mergeCell ref="F22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="F23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="F1:G3"/>
-    <mergeCell ref="H1:I3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12120,35 +12551,35 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12171,37 +12602,37 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="F6" t="s">
         <v>40</v>
       </c>
@@ -12230,37 +12661,37 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="H5" t="s">
         <v>40</v>
       </c>
@@ -12268,22 +12699,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9">
       <c r="I6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="I7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9">
       <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
@@ -12309,36 +12740,36 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="F4" t="s">
         <v>40</v>
       </c>
